--- a/Filtered_By_Region/Region II/Region II_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region II/Region II_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS378"/>
+  <dimension ref="A1:AU378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -773,7 +783,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -887,7 +902,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1001,7 +1021,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1115,7 +1140,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1229,7 +1259,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1343,7 +1378,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1457,7 +1497,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1571,7 +1616,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1685,7 +1735,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1799,7 +1854,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1913,7 +1973,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2027,7 +2092,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2141,7 +2211,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2255,7 +2330,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2369,7 +2449,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2483,7 +2568,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2597,7 +2687,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2711,7 +2806,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2825,7 +2925,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2939,7 +3044,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3051,7 +3161,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3163,7 +3273,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3275,7 +3385,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3387,7 +3497,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -3499,7 +3609,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -3611,7 +3721,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -3723,7 +3833,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -3835,7 +3945,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -3947,7 +4057,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -4059,7 +4169,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -4171,7 +4281,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -4290,6 +4400,11 @@
       </c>
       <c r="AR33" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -4400,7 +4515,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -4512,7 +4627,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -4631,6 +4746,11 @@
       </c>
       <c r="AR36" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -4748,6 +4868,11 @@
       </c>
       <c r="AR37" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -4858,7 +4983,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4970,7 +5095,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5082,7 +5207,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5194,7 +5319,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5313,6 +5438,11 @@
       </c>
       <c r="AR42" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -5423,7 +5553,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5535,7 +5665,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5647,7 +5777,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5759,7 +5889,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5871,7 +6001,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5983,7 +6113,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -6095,7 +6225,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -6207,7 +6337,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -6319,7 +6449,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -6438,6 +6568,11 @@
       </c>
       <c r="AR52" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -6555,6 +6690,11 @@
       </c>
       <c r="AR53" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -6672,6 +6812,11 @@
       </c>
       <c r="AR54" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT54" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -6782,7 +6927,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6901,6 +7046,11 @@
       </c>
       <c r="AR56" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -7011,7 +7161,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -7123,7 +7273,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -7235,7 +7385,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -7347,7 +7497,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7459,7 +7609,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -7571,7 +7721,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -7690,6 +7840,11 @@
       </c>
       <c r="AR63" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -7807,6 +7962,11 @@
       </c>
       <c r="AR64" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -7917,7 +8077,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -8036,6 +8196,11 @@
       </c>
       <c r="AR66" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -8146,7 +8311,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -8258,7 +8423,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -8370,7 +8535,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8482,7 +8647,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8594,7 +8759,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8706,7 +8871,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -8818,7 +8983,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8930,7 +9095,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9042,7 +9207,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9154,7 +9319,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -9266,7 +9431,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -9378,7 +9543,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -9490,7 +9655,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9602,7 +9767,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -9714,7 +9879,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9826,7 +9991,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9938,7 +10103,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10050,7 +10215,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10162,7 +10327,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10274,7 +10439,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10386,7 +10551,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AT87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10498,7 +10663,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10610,7 +10775,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10722,7 +10887,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10834,7 +10999,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10946,7 +11111,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11058,7 +11223,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11170,7 +11335,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11282,7 +11447,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AT95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11394,7 +11559,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11506,7 +11671,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11618,7 +11783,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
+      <c r="AT98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11730,7 +11895,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11849,6 +12014,11 @@
       </c>
       <c r="AR100" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT100" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -11959,7 +12129,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12071,7 +12241,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12183,7 +12353,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AT103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12295,7 +12465,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12407,7 +12577,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12519,7 +12689,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AT106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12631,7 +12801,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
+      <c r="AT107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12743,7 +12913,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12855,7 +13025,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12967,7 +13137,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AT110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13079,7 +13249,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AT111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13191,7 +13361,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AT112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13303,7 +13473,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AT113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13415,7 +13585,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR114" t="inlineStr">
+      <c r="AT114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13527,7 +13697,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AT115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13639,7 +13809,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13751,7 +13921,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AT117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13863,7 +14033,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AT118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13975,7 +14145,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR119" t="inlineStr">
+      <c r="AT119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14087,7 +14257,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR120" t="inlineStr">
+      <c r="AT120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14199,7 +14369,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR121" t="inlineStr">
+      <c r="AT121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14311,7 +14481,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AT122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14423,7 +14593,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AT123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14535,7 +14705,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AT124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14647,7 +14817,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AT125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14759,7 +14929,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AT126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14871,7 +15041,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AT127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14983,7 +15153,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AT128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15095,7 +15265,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AT129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15207,7 +15377,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AT130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15319,7 +15489,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR131" t="inlineStr">
+      <c r="AT131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15431,7 +15601,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AT132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15543,7 +15713,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15655,7 +15825,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AT134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15767,7 +15937,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR135" t="inlineStr">
+      <c r="AT135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15879,7 +16049,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR136" t="inlineStr">
+      <c r="AT136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15991,7 +16161,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR137" t="inlineStr">
+      <c r="AT137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16103,7 +16273,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AT138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16215,7 +16385,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR139" t="inlineStr">
+      <c r="AT139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16327,7 +16497,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AT140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16439,7 +16609,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AT141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16551,7 +16721,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AT142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16663,7 +16833,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR143" t="inlineStr">
+      <c r="AT143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16775,7 +16945,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR144" t="inlineStr">
+      <c r="AT144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16887,7 +17057,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR145" t="inlineStr">
+      <c r="AT145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16999,7 +17169,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17111,7 +17281,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR147" t="inlineStr">
+      <c r="AT147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17223,7 +17393,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR148" t="inlineStr">
+      <c r="AT148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17335,7 +17505,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR149" t="inlineStr">
+      <c r="AT149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17447,7 +17617,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AT150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17559,7 +17729,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AT151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17671,7 +17841,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AT152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17783,7 +17953,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17895,7 +18065,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR154" t="inlineStr">
+      <c r="AT154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18007,7 +18177,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18119,7 +18289,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18231,7 +18401,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18343,7 +18513,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR158" t="inlineStr">
+      <c r="AT158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18455,7 +18625,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR159" t="inlineStr">
+      <c r="AT159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18567,7 +18737,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR160" t="inlineStr">
+      <c r="AT160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18679,7 +18849,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR161" t="inlineStr">
+      <c r="AT161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18791,7 +18961,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR162" t="inlineStr">
+      <c r="AT162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18903,7 +19073,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AT163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19015,7 +19185,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR164" t="inlineStr">
+      <c r="AT164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19127,7 +19297,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR165" t="inlineStr">
+      <c r="AT165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19239,7 +19409,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR166" t="inlineStr">
+      <c r="AT166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19351,7 +19521,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR167" t="inlineStr">
+      <c r="AT167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19463,7 +19633,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR168" t="inlineStr">
+      <c r="AT168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19575,7 +19745,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR169" t="inlineStr">
+      <c r="AT169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19687,7 +19857,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR170" t="inlineStr">
+      <c r="AT170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19799,7 +19969,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR171" t="inlineStr">
+      <c r="AT171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19911,7 +20081,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR172" t="inlineStr">
+      <c r="AT172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20023,7 +20193,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR173" t="inlineStr">
+      <c r="AT173" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20135,7 +20305,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR174" t="inlineStr">
+      <c r="AT174" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20247,7 +20417,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR175" t="inlineStr">
+      <c r="AT175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20359,7 +20529,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR176" t="inlineStr">
+      <c r="AT176" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20476,7 +20646,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR177" t="inlineStr">
+      <c r="AT177" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20593,7 +20763,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR178" t="inlineStr">
+      <c r="AT178" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20710,7 +20880,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20827,7 +20997,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20946,6 +21116,11 @@
       </c>
       <c r="AR181" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT181" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -21063,6 +21238,11 @@
       </c>
       <c r="AR182" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT182" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -21178,7 +21358,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR183" t="inlineStr">
+      <c r="AT183" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21295,7 +21475,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR184" t="inlineStr">
+      <c r="AT184" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21416,7 +21596,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR185" t="inlineStr">
+      <c r="AT185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21537,7 +21717,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR186" t="inlineStr">
+      <c r="AT186" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21658,7 +21838,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR187" t="inlineStr">
+      <c r="AT187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21779,7 +21959,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR188" t="inlineStr">
+      <c r="AT188" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21900,7 +22080,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR189" t="inlineStr">
+      <c r="AT189" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22021,7 +22201,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR190" t="inlineStr">
+      <c r="AT190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22142,7 +22322,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR191" t="inlineStr">
+      <c r="AT191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22263,7 +22443,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR192" t="inlineStr">
+      <c r="AT192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22384,7 +22564,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR193" t="inlineStr">
+      <c r="AT193" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22505,7 +22685,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR194" t="inlineStr">
+      <c r="AT194" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22626,7 +22806,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR195" t="inlineStr">
+      <c r="AT195" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22747,7 +22927,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR196" t="inlineStr">
+      <c r="AT196" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22866,6 +23046,11 @@
       </c>
       <c r="AR197" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT197" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -22985,7 +23170,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR198" t="inlineStr">
+      <c r="AT198" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23106,7 +23291,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR199" t="inlineStr">
+      <c r="AT199" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23227,7 +23412,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR200" t="inlineStr">
+      <c r="AT200" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23348,7 +23533,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR201" t="inlineStr">
+      <c r="AT201" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23460,7 +23645,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR202" t="inlineStr">
+      <c r="AT202" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23572,7 +23757,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR203" t="inlineStr">
+      <c r="AT203" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23684,7 +23869,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR204" t="inlineStr">
+      <c r="AT204" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23796,7 +23981,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR205" t="inlineStr">
+      <c r="AT205" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23908,7 +24093,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR206" t="inlineStr">
+      <c r="AT206" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24020,7 +24205,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR207" t="inlineStr">
+      <c r="AT207" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24129,7 +24314,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR208" t="inlineStr">
+      <c r="AT208" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24238,7 +24423,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR209" t="inlineStr">
+      <c r="AT209" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -24347,7 +24532,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR210" t="inlineStr">
+      <c r="AT210" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -24456,7 +24641,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR211" t="inlineStr">
+      <c r="AT211" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -24575,7 +24760,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR212" t="inlineStr">
+      <c r="AT212" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24689,7 +24874,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR213" t="inlineStr">
+      <c r="AT213" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -24803,7 +24988,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR214" t="inlineStr">
+      <c r="AT214" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -24922,7 +25107,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR215" t="inlineStr">
+      <c r="AT215" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25036,7 +25221,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR216" t="inlineStr">
+      <c r="AT216" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25155,7 +25340,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR217" t="inlineStr">
+      <c r="AT217" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -25269,7 +25454,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR218" t="inlineStr">
+      <c r="AT218" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25383,7 +25568,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR219" t="inlineStr">
+      <c r="AT219" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -25502,7 +25687,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR220" t="inlineStr">
+      <c r="AT220" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -25616,7 +25801,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR221" t="inlineStr">
+      <c r="AT221" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -25730,7 +25915,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR222" t="inlineStr">
+      <c r="AT222" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -25852,7 +26037,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR223" t="inlineStr">
+      <c r="AT223" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25971,7 +26156,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR224" t="inlineStr">
+      <c r="AT224" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26085,7 +26270,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR225" t="inlineStr">
+      <c r="AT225" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26204,7 +26389,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR226" t="inlineStr">
+      <c r="AT226" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26323,7 +26508,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR227" t="inlineStr">
+      <c r="AT227" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26437,7 +26622,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR228" t="inlineStr">
+      <c r="AT228" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26551,7 +26736,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR229" t="inlineStr">
+      <c r="AT229" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26670,7 +26855,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR230" t="inlineStr">
+      <c r="AT230" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26789,7 +26974,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR231" t="inlineStr">
+      <c r="AT231" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26903,7 +27088,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR232" t="inlineStr">
+      <c r="AT232" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27022,7 +27207,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR233" t="inlineStr">
+      <c r="AT233" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27141,7 +27326,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR234" t="inlineStr">
+      <c r="AT234" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27255,7 +27440,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR235" t="inlineStr">
+      <c r="AT235" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27374,7 +27559,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR236" t="inlineStr">
+      <c r="AT236" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27488,7 +27673,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR237" t="inlineStr">
+      <c r="AT237" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27602,7 +27787,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR238" t="inlineStr">
+      <c r="AT238" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27721,7 +27906,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR239" t="inlineStr">
+      <c r="AT239" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27840,7 +28025,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR240" t="inlineStr">
+      <c r="AT240" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27959,7 +28144,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR241" t="inlineStr">
+      <c r="AT241" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28078,7 +28263,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR242" t="inlineStr">
+      <c r="AT242" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28197,7 +28382,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR243" t="inlineStr">
+      <c r="AT243" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28316,7 +28501,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR244" t="inlineStr">
+      <c r="AT244" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28435,7 +28620,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR245" t="inlineStr">
+      <c r="AT245" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28554,7 +28739,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR246" t="inlineStr">
+      <c r="AT246" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28673,7 +28858,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR247" t="inlineStr">
+      <c r="AT247" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28792,7 +28977,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR248" t="inlineStr">
+      <c r="AT248" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28911,7 +29096,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR249" t="inlineStr">
+      <c r="AT249" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29030,7 +29215,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR250" t="inlineStr">
+      <c r="AT250" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29149,7 +29334,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR251" t="inlineStr">
+      <c r="AT251" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29268,7 +29453,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR252" t="inlineStr">
+      <c r="AT252" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29387,7 +29572,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR253" t="inlineStr">
+      <c r="AT253" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29506,7 +29691,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR254" t="inlineStr">
+      <c r="AT254" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29625,7 +29810,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR255" t="inlineStr">
+      <c r="AT255" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29744,7 +29929,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR256" t="inlineStr">
+      <c r="AT256" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29863,7 +30048,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR257" t="inlineStr">
+      <c r="AT257" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29982,7 +30167,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR258" t="inlineStr">
+      <c r="AT258" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30101,7 +30286,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR259" t="inlineStr">
+      <c r="AT259" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30220,7 +30405,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR260" t="inlineStr">
+      <c r="AT260" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30339,7 +30524,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR261" t="inlineStr">
+      <c r="AT261" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30458,7 +30643,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR262" t="inlineStr">
+      <c r="AT262" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30577,7 +30762,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR263" t="inlineStr">
+      <c r="AT263" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30696,7 +30881,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR264" t="inlineStr">
+      <c r="AT264" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30815,7 +31000,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR265" t="inlineStr">
+      <c r="AT265" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30934,7 +31119,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR266" t="inlineStr">
+      <c r="AT266" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31053,7 +31238,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR267" t="inlineStr">
+      <c r="AT267" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31172,7 +31357,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR268" t="inlineStr">
+      <c r="AT268" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31291,7 +31476,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR269" t="inlineStr">
+      <c r="AT269" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31410,7 +31595,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR270" t="inlineStr">
+      <c r="AT270" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31529,7 +31714,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR271" t="inlineStr">
+      <c r="AT271" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31648,7 +31833,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR272" t="inlineStr">
+      <c r="AT272" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31767,7 +31952,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR273" t="inlineStr">
+      <c r="AT273" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31886,7 +32071,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR274" t="inlineStr">
+      <c r="AT274" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32005,7 +32190,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR275" t="inlineStr">
+      <c r="AT275" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32124,7 +32309,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR276" t="inlineStr">
+      <c r="AT276" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32243,7 +32428,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR277" t="inlineStr">
+      <c r="AT277" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32362,7 +32547,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR278" t="inlineStr">
+      <c r="AT278" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32481,7 +32666,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR279" t="inlineStr">
+      <c r="AT279" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32600,7 +32785,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR280" t="inlineStr">
+      <c r="AT280" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32719,7 +32904,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR281" t="inlineStr">
+      <c r="AT281" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32838,7 +33023,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR282" t="inlineStr">
+      <c r="AT282" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32957,7 +33142,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR283" t="inlineStr">
+      <c r="AT283" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33076,7 +33261,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR284" t="inlineStr">
+      <c r="AT284" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33195,7 +33380,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR285" t="inlineStr">
+      <c r="AT285" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33314,7 +33499,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR286" t="inlineStr">
+      <c r="AT286" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33433,7 +33618,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR287" t="inlineStr">
+      <c r="AT287" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33552,7 +33737,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR288" t="inlineStr">
+      <c r="AT288" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33666,7 +33851,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR289" t="inlineStr">
+      <c r="AT289" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33780,7 +33965,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR290" t="inlineStr">
+      <c r="AT290" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33894,7 +34079,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR291" t="inlineStr">
+      <c r="AT291" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34008,7 +34193,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR292" t="inlineStr">
+      <c r="AT292" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34122,7 +34307,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR293" t="inlineStr">
+      <c r="AT293" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34236,7 +34421,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR294" t="inlineStr">
+      <c r="AT294" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34350,7 +34535,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR295" t="inlineStr">
+      <c r="AT295" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34464,7 +34649,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR296" t="inlineStr">
+      <c r="AT296" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34578,7 +34763,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR297" t="inlineStr">
+      <c r="AT297" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34692,7 +34877,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR298" t="inlineStr">
+      <c r="AT298" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34806,7 +34991,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR299" t="inlineStr">
+      <c r="AT299" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34920,7 +35105,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR300" t="inlineStr">
+      <c r="AT300" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35034,7 +35219,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR301" t="inlineStr">
+      <c r="AT301" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35148,7 +35333,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR302" t="inlineStr">
+      <c r="AT302" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35262,7 +35447,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR303" t="inlineStr">
+      <c r="AT303" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35376,7 +35561,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR304" t="inlineStr">
+      <c r="AT304" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35490,7 +35675,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR305" t="inlineStr">
+      <c r="AT305" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35604,7 +35789,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR306" t="inlineStr">
+      <c r="AT306" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35718,7 +35903,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR307" t="inlineStr">
+      <c r="AT307" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35832,7 +36017,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR308" t="inlineStr">
+      <c r="AT308" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35951,7 +36136,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR309" t="inlineStr">
+      <c r="AT309" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36070,7 +36255,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR310" t="inlineStr">
+      <c r="AT310" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36189,7 +36374,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR311" t="inlineStr">
+      <c r="AT311" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36308,7 +36493,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR312" t="inlineStr">
+      <c r="AT312" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36427,7 +36612,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR313" t="inlineStr">
+      <c r="AT313" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36546,7 +36731,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR314" t="inlineStr">
+      <c r="AT314" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36665,7 +36850,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR315" t="inlineStr">
+      <c r="AT315" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36784,7 +36969,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR316" t="inlineStr">
+      <c r="AT316" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36893,7 +37078,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR317" t="inlineStr">
+      <c r="AT317" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -37012,7 +37197,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR318" t="inlineStr">
+      <c r="AT318" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37131,7 +37316,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR319" t="inlineStr">
+      <c r="AT319" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37250,7 +37435,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR320" t="inlineStr">
+      <c r="AT320" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37364,7 +37549,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR321" t="inlineStr">
+      <c r="AT321" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -37478,7 +37663,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR322" t="inlineStr">
+      <c r="AT322" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -37592,7 +37777,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR323" t="inlineStr">
+      <c r="AT323" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37706,7 +37891,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR324" t="inlineStr">
+      <c r="AT324" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -37820,7 +38005,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR325" t="inlineStr">
+      <c r="AT325" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -37934,7 +38119,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR326" t="inlineStr">
+      <c r="AT326" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -38048,7 +38233,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR327" t="inlineStr">
+      <c r="AT327" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38162,7 +38347,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR328" t="inlineStr">
+      <c r="AT328" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38276,7 +38461,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR329" t="inlineStr">
+      <c r="AT329" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38390,7 +38575,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR330" t="inlineStr">
+      <c r="AT330" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38539,7 +38724,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR331" t="inlineStr">
+      <c r="AT331" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38688,7 +38873,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR332" t="inlineStr">
+      <c r="AT332" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38837,7 +39022,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR333" t="inlineStr">
+      <c r="AT333" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38951,7 +39136,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR334" t="inlineStr">
+      <c r="AT334" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39065,7 +39250,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR335" t="inlineStr">
+      <c r="AT335" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39179,7 +39364,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR336" t="inlineStr">
+      <c r="AT336" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39293,7 +39478,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR337" t="inlineStr">
+      <c r="AT337" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39407,7 +39592,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR338" t="inlineStr">
+      <c r="AT338" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39521,7 +39706,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR339" t="inlineStr">
+      <c r="AT339" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39637,6 +39822,11 @@
       </c>
       <c r="AR340" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT340" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -39749,7 +39939,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR341" t="inlineStr">
+      <c r="AT341" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39863,7 +40053,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR342" t="inlineStr">
+      <c r="AT342" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39977,7 +40167,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR343" t="inlineStr">
+      <c r="AT343" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40091,7 +40281,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR344" t="inlineStr">
+      <c r="AT344" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40205,7 +40395,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR345" t="inlineStr">
+      <c r="AT345" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40319,7 +40509,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR346" t="inlineStr">
+      <c r="AT346" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40433,7 +40623,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR347" t="inlineStr">
+      <c r="AT347" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40547,7 +40737,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR348" t="inlineStr">
+      <c r="AT348" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40661,7 +40851,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR349" t="inlineStr">
+      <c r="AT349" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40775,7 +40965,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR350" t="inlineStr">
+      <c r="AT350" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40889,7 +41079,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR351" t="inlineStr">
+      <c r="AT351" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41005,6 +41195,11 @@
       </c>
       <c r="AR352" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT352" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -41117,7 +41312,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR353" t="inlineStr">
+      <c r="AT353" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41231,7 +41426,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR354" t="inlineStr">
+      <c r="AT354" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41345,7 +41540,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR355" t="inlineStr">
+      <c r="AT355" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41459,7 +41654,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR356" t="inlineStr">
+      <c r="AT356" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41573,7 +41768,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR357" t="inlineStr">
+      <c r="AT357" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41689,6 +41884,11 @@
       </c>
       <c r="AR358" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT358" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -41803,6 +42003,11 @@
       </c>
       <c r="AR359" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT359" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -41963,6 +42168,11 @@
       </c>
       <c r="AR360" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT360" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42115,6 +42325,11 @@
       </c>
       <c r="AR361" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT361" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42267,6 +42482,11 @@
       </c>
       <c r="AR362" t="inlineStr">
         <is>
+          <t>bbm 2023 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT362" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42374,7 +42594,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR363" t="inlineStr">
+      <c r="AT363" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
@@ -42536,6 +42756,11 @@
       </c>
       <c r="AR364" t="inlineStr">
         <is>
+          <t>BBM 2025 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT364" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42696,6 +42921,11 @@
       </c>
       <c r="AR365" t="inlineStr">
         <is>
+          <t>BBM 2025 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT365" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -42846,7 +43076,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR366" t="inlineStr">
+      <c r="AT366" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -42983,7 +43213,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR367" t="inlineStr">
+      <c r="AT367" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -43131,6 +43361,11 @@
       </c>
       <c r="AR368" t="inlineStr">
         <is>
+          <t>BBM 2025 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT368" t="inlineStr">
+        <is>
           <t>Completed</t>
         </is>
       </c>
@@ -43280,6 +43515,11 @@
       </c>
       <c r="AR369" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT369" t="inlineStr">
+        <is>
           <t>Completed</t>
         </is>
       </c>
@@ -43429,6 +43669,11 @@
       </c>
       <c r="AR370" t="inlineStr">
         <is>
+          <t>BBM 2025 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT370" t="inlineStr">
+        <is>
           <t>Completed</t>
         </is>
       </c>
@@ -43578,6 +43823,11 @@
       </c>
       <c r="AR371" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT371" t="inlineStr">
+        <is>
           <t>Completed</t>
         </is>
       </c>
@@ -43727,6 +43977,11 @@
       </c>
       <c r="AR372" t="inlineStr">
         <is>
+          <t>BBM 2025 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT372" t="inlineStr">
+        <is>
           <t>Completed</t>
         </is>
       </c>
@@ -43876,6 +44131,11 @@
       </c>
       <c r="AR373" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT373" t="inlineStr">
+        <is>
           <t>Completed</t>
         </is>
       </c>
@@ -44025,6 +44285,11 @@
       </c>
       <c r="AR374" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT374" t="inlineStr">
+        <is>
           <t>Completed</t>
         </is>
       </c>
@@ -44185,6 +44450,11 @@
       </c>
       <c r="AR375" t="inlineStr">
         <is>
+          <t>BBM 2025 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT375" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -44336,7 +44606,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR376" t="inlineStr">
+      <c r="AT376" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -44451,7 +44721,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR377" t="inlineStr">
+      <c r="AT377" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
@@ -44565,7 +44835,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR378" t="inlineStr">
+      <c r="AT378" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
@@ -44573,7 +44843,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS378" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU378" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
